--- a/Project/Module-2/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/Project/Module-2/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\Project\Module-2\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CF548-67A9-47F3-A248-41CB4AD2D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D1542-5DEE-4C82-9478-00664DAA5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
        1) İlgili bilgiye ait "Bilgi kısmı boş bırakılamaz" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
 3a) Derslik bilgileri formata uygun şekilde girilmemiş ise.
-       1) "İlgili derslik bu şubede yer almamaktadır" mesajı gösterilir.
+       1) "Derslik bilgisi yanlış formatta girilmiştir" mesajı gösterilir.
        2) 3. adımın tekrar edilmesi beklenir.</t>
   </si>
 </sst>
@@ -141,13 +141,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,91 +465,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="107.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -559,12 +559,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -573,12 +579,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Project/Module-2/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/Project/Module-2/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\Project\Module-2\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D1542-5DEE-4C82-9478-00664DAA5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7C039-04FA-4197-BB86-EB89511F81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -141,13 +141,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -485,11 +485,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -497,11 +497,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -509,11 +509,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -521,11 +521,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -533,11 +533,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -545,11 +545,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -560,17 +560,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -579,6 +573,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
